--- a/Revision_Progress.xlsx
+++ b/Revision_Progress.xlsx
@@ -72,9 +72,6 @@
     <t>2. SI - review 2: former measures</t>
   </si>
   <si>
-    <t>3. Data distinctio</t>
-  </si>
-  <si>
     <t>4.1. Headway impact - ATP</t>
   </si>
   <si>
@@ -94,16 +91,26 @@
   </si>
   <si>
     <t>9. SI - conclusion</t>
+  </si>
+  <si>
+    <t>3. Data distinction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,11 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +445,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,11 +477,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -504,11 +514,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
     </row>
@@ -520,19 +530,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
     </row>
@@ -557,57 +567,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -615,37 +625,38 @@
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>